--- a/biology/Botanique/Hygrophorus_eburneus/Hygrophorus_eburneus.xlsx
+++ b/biology/Botanique/Hygrophorus_eburneus/Hygrophorus_eburneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygrophore blanc
 Hygrophorus eburneus, l’Hygrophore blanc, est une espèce de champignons de l'ordre des Agaricales.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (4 février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (4 février 2023) :
 Hygrophorus eburneus var. cossus (Sowerby) Quél., 1888
 Hygrophorus eburneus var. discoxanthus (Fr.) Krieglst., 2000
 Hygrophorus eburneus var. eburneus
@@ -548,11 +562,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Hygrophorus eburneus (Bull.) Fr., 1836[1],[2].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus eburneus Bull., 1783[1].
-Hygrophorus eburneus a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Hygrophorus eburneus (Bull.) Fr., 1836,.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus eburneus Bull., 1783.
+Hygrophorus eburneus a pour synonymes :
 Agaricus eburneus Bull., 1783
 Gymnopus eburneus (Bull.) Gray, 1821
 Limacium eburneum (Bull.) P.Kumm., 1871</t>
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(sv) Elias Fries, Anteckningar öfver de i Sverige växande ätliga svampar, 1836, 68 p. (lire en ligne)</t>
         </is>
